--- a/Daisy-xls/ResearchPages/research-kidney.xlsx
+++ b/Daisy-xls/ResearchPages/research-kidney.xlsx
@@ -132,21 +132,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -169,6 +163,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -206,9 +215,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -223,6 +229,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -530,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -540,7 +549,7 @@
     <col min="3" max="3" width="59.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="67.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="15" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -569,7 +578,9 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="16">
+        <v>487752</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
@@ -586,15 +597,17 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="16">
+        <v>816561</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>41872</v>
       </c>
     </row>
@@ -602,15 +615,17 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="16">
+        <v>587570</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>41449</v>
       </c>
     </row>
@@ -618,17 +633,19 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="16">
+        <v>316878</v>
+      </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>41072</v>
       </c>
     </row>
@@ -636,15 +653,17 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="16">
+        <v>109052</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>40798</v>
       </c>
     </row>
